--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/MICHIGAN_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/MICHIGAN_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D915"/>
+  <dimension ref="A1:D909"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="10">
@@ -628,7 +628,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C19">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C25">
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C28">
@@ -778,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="31">
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
       <c r="D39">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="40">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C44">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C45">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C50">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C55">
@@ -1246,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="67">
@@ -1272,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="D68">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="69">
@@ -1311,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="D71">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="72">
@@ -1407,7 +1407,7 @@
         <v>4</v>
       </c>
       <c r="D78">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="79">
@@ -1426,7 +1426,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C80">
@@ -1452,7 +1452,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C82">
@@ -1652,7 +1652,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C97">
@@ -1787,7 +1787,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1844,7 +1844,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C111">
@@ -1942,7 +1942,7 @@
         <v>4</v>
       </c>
       <c r="D118">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="119">
@@ -2194,13 +2194,13 @@
         <v>4</v>
       </c>
       <c r="D137">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C138">
@@ -2304,12 +2304,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C146">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C148">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C150">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C152">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C156">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C159">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C168">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C173">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C179">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C185">
@@ -2849,7 +2849,7 @@
         <v>4</v>
       </c>
       <c r="D187">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="188">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C189">
@@ -2990,7 +2990,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C198">
@@ -3003,7 +3003,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C199">
@@ -3068,7 +3068,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C204">
@@ -3107,7 +3107,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C207">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C216">
@@ -3250,7 +3250,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C218">
@@ -3276,7 +3276,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C220">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C221">
@@ -3315,14 +3315,14 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C223">
         <v>4</v>
       </c>
       <c r="D223">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="224">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C228">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C234">
@@ -3502,7 +3502,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C237">
@@ -3554,7 +3554,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C241">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C243">
@@ -3593,7 +3593,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C244">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C247">
@@ -3645,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C248">
@@ -3684,7 +3684,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C251">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C252">
@@ -3717,7 +3717,7 @@
         <v>4</v>
       </c>
       <c r="D253">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="254">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C255">
@@ -3782,13 +3782,13 @@
         <v>4</v>
       </c>
       <c r="D258">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C259">
@@ -3801,20 +3801,20 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C260">
         <v>4</v>
       </c>
       <c r="D260">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C261">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C262">
@@ -3847,13 +3847,13 @@
         <v>4</v>
       </c>
       <c r="D263">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C265">
@@ -3886,7 +3886,7 @@
         <v>4</v>
       </c>
       <c r="D266">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="267">
@@ -3938,7 +3938,7 @@
         <v>4</v>
       </c>
       <c r="D270">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="271">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C276">
@@ -4029,13 +4029,13 @@
         <v>4</v>
       </c>
       <c r="D277">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C278">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C280">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C282">
@@ -4229,13 +4229,13 @@
         <v>4</v>
       </c>
       <c r="D292">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C293">
@@ -4287,7 +4287,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C297">
@@ -4307,7 +4307,7 @@
         <v>4</v>
       </c>
       <c r="D298">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="299">
@@ -4326,7 +4326,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C300">
@@ -4365,7 +4365,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C303">
@@ -4443,7 +4443,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C309">
@@ -4469,7 +4469,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C311">
@@ -4482,7 +4482,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C312">
@@ -4515,7 +4515,7 @@
         <v>4</v>
       </c>
       <c r="D314">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="315">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C316">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C320">
@@ -4612,20 +4612,20 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C322">
         <v>4</v>
       </c>
       <c r="D322">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C323">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C328">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C330">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C333">
@@ -4799,7 +4799,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C336">
@@ -4929,7 +4929,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C346">
@@ -4968,7 +4968,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C349">
@@ -5020,7 +5020,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C353">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C357">
@@ -5111,7 +5111,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C360">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C363">
@@ -5163,7 +5163,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C364">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C366">
@@ -5235,13 +5235,13 @@
         <v>4</v>
       </c>
       <c r="D369">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C370">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C371">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C372">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C378">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C379">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C381">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C382">
@@ -5423,14 +5423,14 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C384">
         <v>4</v>
       </c>
       <c r="D384">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="385">
@@ -5610,7 +5610,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C398">
@@ -5734,7 +5734,7 @@
         <v>4</v>
       </c>
       <c r="D407">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="408">
@@ -6059,7 +6059,7 @@
         <v>4</v>
       </c>
       <c r="D432">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="433">
@@ -6176,7 +6176,7 @@
         <v>4</v>
       </c>
       <c r="D441">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="442">
@@ -6195,7 +6195,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C443">
@@ -6215,7 +6215,7 @@
         <v>4</v>
       </c>
       <c r="D444">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="445">
@@ -6306,7 +6306,7 @@
         <v>4</v>
       </c>
       <c r="D451">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="452">
@@ -6460,7 +6460,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C463">
@@ -6564,14 +6564,14 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C471">
         <v>4</v>
       </c>
       <c r="D471">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="472">
@@ -6616,7 +6616,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C475">
@@ -6629,7 +6629,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C476">
@@ -6694,7 +6694,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C481">
@@ -6964,7 +6964,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C501">
@@ -6977,7 +6977,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C502">
@@ -7016,7 +7016,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C505">
@@ -7086,7 +7086,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C510">
@@ -7125,7 +7125,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C513">
@@ -7164,7 +7164,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C516">
@@ -7177,7 +7177,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C517">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C518">
@@ -7203,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C519">
@@ -7216,14 +7216,14 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C520">
         <v>4</v>
       </c>
       <c r="D520">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="521">
@@ -7281,14 +7281,14 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C525">
         <v>4</v>
       </c>
       <c r="D525">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="526">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C528">
@@ -7346,7 +7346,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C530">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C531">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C532">
@@ -7411,7 +7411,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C535">
@@ -7561,7 +7561,7 @@
         <v>4</v>
       </c>
       <c r="D546">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="547">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C555">
@@ -7964,7 +7964,7 @@
         <v>4</v>
       </c>
       <c r="D577">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="578">
@@ -8016,7 +8016,7 @@
         <v>4</v>
       </c>
       <c r="D581">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="582">
@@ -8068,7 +8068,7 @@
         <v>4</v>
       </c>
       <c r="D585">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="586">
@@ -8185,13 +8185,13 @@
         <v>4</v>
       </c>
       <c r="D594">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C595">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C602">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C606">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C607">
@@ -8360,20 +8360,20 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C608">
         <v>4</v>
       </c>
       <c r="D608">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C609">
@@ -8386,14 +8386,14 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C610">
         <v>4</v>
       </c>
       <c r="D610">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="611">
@@ -8437,7 +8437,7 @@
         <v>4</v>
       </c>
       <c r="D613">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="614">
@@ -8508,7 +8508,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C619">
@@ -8677,7 +8677,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C632">
@@ -8716,7 +8716,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C635">
@@ -8755,7 +8755,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C638">
@@ -9002,20 +9002,20 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C657">
         <v>4</v>
       </c>
       <c r="D657">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C658">
@@ -9054,7 +9054,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C661">
@@ -9132,14 +9132,14 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C667">
         <v>4</v>
       </c>
       <c r="D667">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="668">
@@ -9152,7 +9152,7 @@
         <v>4</v>
       </c>
       <c r="D668">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="669">
@@ -9267,7 +9267,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C677">
@@ -9293,7 +9293,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C679">
@@ -9409,7 +9409,7 @@
         <v>4</v>
       </c>
       <c r="D687">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="688">
@@ -9459,7 +9459,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C691">
@@ -9602,7 +9602,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C702">
@@ -9654,7 +9654,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C706">
@@ -9667,7 +9667,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C707">
@@ -9687,7 +9687,7 @@
         <v>4</v>
       </c>
       <c r="D708">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="709">
@@ -9719,7 +9719,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C711">
@@ -9758,7 +9758,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C714">
@@ -9771,7 +9771,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C715">
@@ -9784,7 +9784,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C716">
@@ -9797,7 +9797,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C717">
@@ -10048,7 +10048,7 @@
         <v>4</v>
       </c>
       <c r="D735">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="736">
@@ -10061,7 +10061,7 @@
         <v>4</v>
       </c>
       <c r="D736">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="737">
@@ -10105,7 +10105,7 @@
         <v>4</v>
       </c>
       <c r="D739">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="740">
@@ -10396,7 +10396,7 @@
         <v>4</v>
       </c>
       <c r="D761">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="762">
@@ -10513,7 +10513,7 @@
         <v>4</v>
       </c>
       <c r="D770">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="771">
@@ -10526,7 +10526,7 @@
         <v>4</v>
       </c>
       <c r="D771">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="772">
@@ -10602,7 +10602,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C777">
@@ -10750,7 +10750,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C788">
@@ -10841,7 +10841,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C795">
@@ -10854,7 +10854,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C796">
@@ -10880,7 +10880,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C798">
@@ -10958,7 +10958,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C804">
@@ -11004,7 +11004,7 @@
         <v>4</v>
       </c>
       <c r="D807">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="808">
@@ -11030,7 +11030,7 @@
         <v>4</v>
       </c>
       <c r="D809">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="810">
@@ -11049,7 +11049,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C811">
@@ -11062,7 +11062,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C812">
@@ -11114,7 +11114,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C816">
@@ -11192,7 +11192,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C822">
@@ -11231,7 +11231,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C825">
@@ -11244,7 +11244,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C826">
@@ -11316,7 +11316,7 @@
         <v>4</v>
       </c>
       <c r="D831">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="832">
@@ -11374,7 +11374,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C836">
@@ -11387,7 +11387,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C837">
@@ -11413,7 +11413,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C839">
@@ -11452,7 +11452,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C842">
@@ -11504,7 +11504,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C846">
@@ -11667,7 +11667,7 @@
         <v>4</v>
       </c>
       <c r="D858">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="859">
@@ -11693,7 +11693,7 @@
         <v>4</v>
       </c>
       <c r="D860">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="861">
@@ -11712,7 +11712,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C862">
@@ -11865,7 +11865,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C873">
@@ -11963,7 +11963,7 @@
         <v>4</v>
       </c>
       <c r="D880">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="881">
@@ -11995,7 +11995,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C883">
@@ -12041,7 +12041,7 @@
         <v>4</v>
       </c>
       <c r="D886">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="887">
@@ -12086,7 +12086,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C890">
@@ -12099,7 +12099,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C891">
@@ -12112,7 +12112,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C892">
@@ -12229,14 +12229,14 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C901">
         <v>4</v>
       </c>
       <c r="D901">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="902">
@@ -12255,14 +12255,14 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C903">
         <v>4</v>
       </c>
       <c r="D903">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="904">
@@ -12288,7 +12288,7 @@
         <v>4</v>
       </c>
       <c r="D905">
-        <v>0.0009521542489883361</v>
+        <v>0.000952154248988336</v>
       </c>
     </row>
     <row r="906">
@@ -12341,41 +12341,6 @@
       </c>
       <c r="D909">
         <v>1</v>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="914">
-      <c r="A914" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="915">
-      <c r="A915" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
